--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/CreditRating.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/CreditRating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1935BFBD-3EE6-4633-95D3-0AF38BBFAC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E46C1-F73F-4181-9D25-87C2B08CF1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,12 +242,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1: 企業戶
-2: 個人戶
-(依現行代碼，唯企業戶與個人戶之分類需參考信用評等模型。自然人採用企金自然人評等模型者，應歸類為企業戶)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -306,6 +300,12 @@
   </si>
   <si>
     <t>DECIMAL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:企業戶
+2:個人戶
+(依現行代碼，唯企業戶與個人戶之分類需參考信用評等模型。自然人採用企金自然人評等模型者，應歸類為企業戶)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1013,10 +1013,10 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -1094,20 +1094,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="19">
         <v>6</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1121,7 +1121,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="19">
         <v>7</v>
@@ -1140,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="19">
         <v>3</v>
@@ -1159,7 +1159,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="19">
         <v>3</v>
@@ -1178,14 +1178,14 @@
         <v>33</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="19">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="20" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1199,14 +1199,14 @@
         <v>35</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="19">
         <v>1</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1214,20 +1214,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="19">
         <v>8</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
@@ -1241,14 +1241,14 @@
         <v>34</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="19">
         <v>1</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1262,14 +1262,14 @@
         <v>36</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1277,20 +1277,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="19">
         <v>8</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -1304,14 +1304,14 @@
         <v>40</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
